--- a/data/trans_camb/P23_11_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_11_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,72</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,04</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 0,78</t>
+          <t>-5,52; 0,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 1,02</t>
+          <t>-4,85; 1,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 6,3</t>
+          <t>-4,05; 2,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 0,39</t>
+          <t>1,79; 8,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 2,67</t>
+          <t>-1,72; 5,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 5,68</t>
+          <t>-4,55; 0,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; -0,12</t>
+          <t>-2,45; 2,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 1,19</t>
+          <t>-2,58; 3,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,03</t>
+          <t>0,34; 6,06</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,03; 3,57</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; -0,1</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 1,2</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 2,18</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 6,43</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 3,6</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-36,28%</t>
+          <t>-38,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-30,08%</t>
+          <t>-31,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>86,68%</t>
+          <t>-3,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-29,22%</t>
+          <t>133,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,35%</t>
+          <t>-30,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-31,29%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-8,84%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>61,12%</t>
+          <t>46,13%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8,24%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-32,91%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-10,53%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>75,24%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>15,43%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-74,56; 36,01</t>
+          <t>-77,31; 33,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-73,52; 50,53</t>
+          <t>-74,52; 42,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,4; 240,81</t>
+          <t>-62,6; 98,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,26; 8,9</t>
+          <t>24,52; 298,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,48; 56,05</t>
+          <t>-19,78; 103,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 115,25</t>
+          <t>-55,82; 5,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-57,03; -1,74</t>
+          <t>-32,17; 53,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,57; 27,8</t>
+          <t>-33,36; 59,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,58; 126,02</t>
+          <t>2,83; 108,3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-19,74; 45,92</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-56,42; -2,0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-40,35; 29,39</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-32,77; 50,23</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>29,38; 148,97</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-11,24; 50,02</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>4,27</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,96</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 4,19</t>
+          <t>-3,35; 3,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 2,66</t>
+          <t>-3,31; 2,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 6,73</t>
+          <t>-1,72; 6,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 0,38</t>
+          <t>-3,32; 6,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 1,09</t>
+          <t>-3,69; 6,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 9,12</t>
+          <t>-7,1; 0,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 1,29</t>
+          <t>-6,66; 0,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 0,97</t>
+          <t>-5,6; 1,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 5,87</t>
+          <t>-0,37; 9,0</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,4; 5,94</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,79; 1,18</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,73; 1,08</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,93; 2,76</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 6,66</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,93; 4,75</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>25,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,5%</t>
+          <t>-2,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>61,4%</t>
+          <t>48,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-33,07%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-24,04%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>-35,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-16,94%</t>
+          <t>-26,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>-22,46%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>66,77%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4,39%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>-18,1%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>35,51%</t>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-19,87%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-2,46%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>51,86%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>12,28%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-52,9; 210,35</t>
+          <t>-56,79; 163,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-64,1; 139,82</t>
+          <t>-66,85; 142,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,09; 278,29</t>
+          <t>-44,52; 298,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-60,11; 7,88</t>
+          <t>-49,8; 169,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,52; 23,32</t>
+          <t>-50,08; 166,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,73; 149,1</t>
+          <t>-62,89; 3,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,08; 27,45</t>
+          <t>-58,45; 15,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,09; 21,31</t>
+          <t>-56,17; 24,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 122,49</t>
+          <t>-5,38; 186,98</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-44,69; 85,62</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-47,2; 24,96</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-48,29; 27,38</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-40,22; 54,68</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-6,53; 144,1</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-30,21; 81,18</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>2,95</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,05</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 2,67</t>
+          <t>-3,59; 2,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 18,87</t>
+          <t>-1,25; 19,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-2,03; 6,32</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,83; 5,85</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 6,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-3,43; 5,78</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 6,41</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,01; 6,71</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-2,33; 3,3</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-0,38; 11,91</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 3,18</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 12,09</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 4,45</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,94%</t>
+          <t>-2,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>264,79%</t>
+          <t>282,42%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>95,0%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>38,54%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>45,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>32,66%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>36,42%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>24,58%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>24,64%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>104,85%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>20,86%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>104,02%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>43,25%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1233,35 +1611,65 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-61,07; 331,82</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,85; 423,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-55,17; 333,93</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-53,17; 341,51</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-69,98; 374,89</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-55,2; 225,85</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-27,61; 642,16</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-55,85; 212,28</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-30,58; 724,01</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-56,76; 247,29</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>3,61</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,86</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 1,32</t>
+          <t>-2,48; 1,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 1,79</t>
+          <t>-2,56; 1,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 5,64</t>
+          <t>-1,36; 3,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,58; -0,01</t>
+          <t>1,31; 6,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,37</t>
+          <t>-0,98; 4,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 5,17</t>
+          <t>-3,89; -0,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 0,22</t>
+          <t>-2,56; 1,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,98</t>
+          <t>-2,54; 1,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,81</t>
+          <t>0,98; 5,88</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 3,17</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,57; 0,12</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 1,3</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 1,68</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2,03; 5,64</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 3,18</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-10,59%</t>
+          <t>-10,94%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-2,46%</t>
+          <t>-1,82%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>97,21%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-26,33%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-6,92%</t>
+          <t>25,17%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>41,88%</t>
+          <t>-28,31%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-21,19%</t>
+          <t>-9,52%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-5,53%</t>
+          <t>-6,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>59,13%</t>
+          <t>55,95%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-22,7%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-7,07%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>3,29%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>71,62%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>14,71%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-50,77; 58,46</t>
+          <t>-51,42; 68,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-52,94; 69,53</t>
+          <t>-50,9; 73,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,67; 212,7</t>
+          <t>-30,69; 131,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,03; 1,22</t>
+          <t>17,81; 205,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,37; 24,73</t>
+          <t>-13,32; 82,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,4; 89,54</t>
+          <t>-46,73; -0,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-40,4; 4,44</t>
+          <t>-31,48; 19,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-28,05; 22,22</t>
+          <t>-31,69; 25,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>23,9; 107,89</t>
+          <t>11,39; 104,86</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-19,68; 40,08</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-42,07; 5,29</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-28,44; 30,01</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-23,39; 37,66</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>31,36; 120,82</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-9,43; 43,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
